--- a/OMS.EasyEcom/TestData/OmsTestData.xlsx
+++ b/OMS.EasyEcom/TestData/OmsTestData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\AutomationEsyEcm\OMS.EasyEcom\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5F045-D299-4469-9146-1BC24BF7D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A68E6-6DF4-4806-A65C-DC7B1805625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CustomerAdress" sheetId="2" r:id="rId2"/>
+    <sheet name="RetailOrderModule" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>OrderType</t>
-  </si>
-  <si>
-    <t>PaymentMode</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>CustomerDetails</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>santosh</t>
   </si>
   <si>
     <t>Email</t>
@@ -47,16 +37,68 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>santosh@xyz.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street </t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Dollars colony</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>8945784578</t>
+  </si>
+  <si>
+    <t>560085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,16 +121,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,21 +421,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16B2DAF-641F-4CEF-9476-E96182ADF968}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="14.21875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -388,43 +440,52 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2A9ABA-4D22-4ED7-BFB3-A597A886BD00}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="17.44140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AF0AB2DB-1884-483B-B688-A9281A04A5E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>